--- a/Database Construction scripts/Restructured ESEP Database - FINAL CLEAN.xlsx
+++ b/Database Construction scripts/Restructured ESEP Database - FINAL CLEAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Syllabi &amp; Teaching Resources" sheetId="1" state="visible" r:id="rId2"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="968">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -292,7 +292,7 @@
     <t xml:space="preserve">Health and Human Services Emerging Leaders Program</t>
   </si>
   <si>
-    <t xml:space="preserve">Detail &amp; Rotations</t>
+    <t xml:space="preserve">Details &amp; Rotations</t>
   </si>
   <si>
     <t xml:space="preserve">The U.S. Department of Health and Human Services (HHS) is recruiting for the next generation of leaders to join the federal ranks and support our mission to serve the American public. The HHS Emerging Leaders Program (ELP) is a competitive, two-year, paid, federal internship within HHS. The program provides interns with a unique opportunity to develop enhanced leadership skills in one of the largest federal agencys in the nation. HHS is looking for talented and highly-motivated individuals with a commitment to public service. The program provides an excellent opportunity for participants to begin a professional career in HHS.</t>
@@ -541,7 +541,7 @@
     <t xml:space="preserve">CSaP Policy Fellowships </t>
   </si>
   <si>
-    <t xml:space="preserve">Organizer(s)</t>
+    <t xml:space="preserve">Organizer</t>
   </si>
   <si>
     <t xml:space="preserve">AAAS Annual Meeting</t>
@@ -640,9 +640,6 @@
     <t xml:space="preserve">https://www.stglobal.org/about-the-conference/</t>
   </si>
   <si>
-    <t xml:space="preserve">Organizer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alan Alda-Kavli Science Communication Center</t>
   </si>
   <si>
@@ -833,9 +830,6 @@
   </si>
   <si>
     <t xml:space="preserve">http://www.transdisciplinario.cinvestav.mx/plan-de-estudios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
   </si>
   <si>
     <t xml:space="preserve">Location </t>
@@ -2995,7 +2989,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">The Journal of </t>
     </r>
@@ -3015,7 +3009,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Sci</t>
     </r>
@@ -3035,7 +3029,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ence </t>
     </r>
@@ -3055,7 +3049,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">P</t>
     </r>
@@ -3075,7 +3069,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">olicy &amp; Governance (JSP</t>
     </r>
@@ -3095,7 +3089,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">G) empowers students, policy fellows, early career professionals and young scholars of all academic backgrounds to publish on topics addressing the widest range of science, technology, energy, environmental and innovation policy topics. Publications include op-eds, policy memos, technology assessments, book reviews, and other articles.</t>
     </r>
@@ -3120,13 +3114,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3159,13 +3153,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -3334,11 +3321,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3371,32 +3358,28 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -3411,7 +3394,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3423,11 +3406,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3495,31 +3478,31 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3539,15 +3522,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3639,19 +3622,19 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2558139534884"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.78604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.1627906976744"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.7209302325581"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="92.7906976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.9953488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.02790697674419"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.7488372093023"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.8093023255814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="98.3255813953488"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,692 +3960,692 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="67.5627906976744"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="53.6558139534884"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="33.5953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="110.386046511628"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="14" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="71.7441860465116"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="56.8558139534884"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="35.6883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="117.153488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="8" width="12.4279069767442"/>
   </cols>
   <sheetData>
-    <row r="1" s="54" customFormat="true" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+    <row r="1" s="53" customFormat="true" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="14" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="D3" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="B3" s="14" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
-        <v>778</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>779</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>780</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>782</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>783</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>784</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>786</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>787</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>788</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="C18" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>790</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>791</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>792</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
-        <v>794</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>795</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>796</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>798</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>799</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>800</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>803</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>806</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>810</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>811</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>813</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>814</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
-        <v>816</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>817</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>818</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>820</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>821</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>822</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>824</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>825</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>826</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>828</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>829</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>830</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>832</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>833</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>834</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>835</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="C20" s="8" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+      <c r="D20" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>791</v>
-      </c>
-      <c r="C20" s="14" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
         <v>838</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="B21" s="8" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="C21" s="8" t="s">
         <v>840</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="D21" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="C21" s="14" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="B22" s="8" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+      <c r="C22" s="8" t="s">
         <v>844</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="D22" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="C22" s="14" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="B23" s="8" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+      <c r="C23" s="8" t="s">
         <v>848</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="D23" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>849</v>
       </c>
-      <c r="C23" s="14" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="B24" s="8" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
+      <c r="C24" s="8" t="s">
         <v>852</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="D24" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>853</v>
       </c>
-      <c r="C24" s="14" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
         <v>854</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="B25" s="8" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
+      <c r="C25" s="8" t="s">
         <v>856</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="D25" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>857</v>
       </c>
-      <c r="C25" s="14" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
         <v>858</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="B26" s="8" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
+      <c r="C26" s="8" t="s">
         <v>860</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="D26" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>861</v>
       </c>
-      <c r="C26" s="14" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
         <v>862</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="B27" s="8" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="s">
+      <c r="C27" s="8" t="s">
         <v>864</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="D27" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>865</v>
       </c>
-      <c r="C27" s="14" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
         <v>866</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="E27" s="14" t="s">
+      <c r="B28" s="8" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
+      <c r="C28" s="8" t="s">
         <v>868</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="D28" s="19" t="s">
         <v>869</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="E28" s="8" t="s">
         <v>870</v>
       </c>
-      <c r="D28" s="20" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
         <v>871</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="B29" s="8" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
+      <c r="C29" s="8" t="s">
         <v>873</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="D29" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>874</v>
       </c>
-      <c r="C29" s="14" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="D29" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="B30" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
+      <c r="D30" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>877</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="C30" s="14" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
         <v>878</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="B31" s="8" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="s">
+      <c r="C31" s="8" t="s">
         <v>880</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="D31" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="C31" s="14" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="D31" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="E31" s="14" t="s">
+      <c r="B32" s="8" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
+      <c r="C32" s="8" t="s">
         <v>884</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="D32" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>885</v>
       </c>
-      <c r="C32" s="14" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
         <v>886</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="E32" s="14" t="s">
+      <c r="B33" s="8" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
+      <c r="C33" s="8" t="s">
         <v>888</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="D33" s="19" t="s">
         <v>889</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="E33" s="8" t="s">
         <v>890</v>
       </c>
-      <c r="D33" s="20" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
         <v>891</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="B34" s="8" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="s">
+      <c r="C34" s="8" t="s">
         <v>893</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="D34" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>894</v>
       </c>
-      <c r="C34" s="14" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
         <v>895</v>
       </c>
-      <c r="D34" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="E34" s="14" t="s">
+      <c r="B35" s="8" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="s">
+      <c r="C35" s="8" t="s">
         <v>897</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="D35" s="19" t="s">
         <v>898</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="E35" s="8" t="s">
         <v>899</v>
       </c>
-      <c r="D35" s="20" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
         <v>900</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="B36" s="8" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="s">
+      <c r="C36" s="8" t="s">
         <v>902</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="D36" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>903</v>
       </c>
-      <c r="C36" s="14" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
         <v>904</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="E36" s="14" t="s">
+      <c r="B37" s="8" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="s">
+      <c r="C37" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="D37" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>907</v>
       </c>
-      <c r="C37" s="14" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
         <v>908</v>
       </c>
-      <c r="D37" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E37" s="14" t="s">
+      <c r="B38" s="8" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="s">
+      <c r="C38" s="8" t="s">
         <v>910</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="D38" s="19" t="s">
         <v>911</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="E38" s="8" t="s">
         <v>912</v>
       </c>
-      <c r="D38" s="20" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
         <v>913</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="B39" s="8" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="s">
+      <c r="C39" s="8" t="s">
         <v>915</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="D39" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>916</v>
       </c>
-      <c r="C39" s="14" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
         <v>917</v>
       </c>
-      <c r="D39" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="E39" s="14" t="s">
+      <c r="B40" s="8" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="s">
+      <c r="C40" s="8" t="s">
         <v>919</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="D40" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>920</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>921</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>922</v>
       </c>
     </row>
   </sheetData>
@@ -4686,226 +4669,226 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.0232558139535"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.9813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="112.111627906977"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.2232558139535"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.4418604651163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="119"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>922</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="D2" s="0" t="s">
         <v>924</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="0" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>925</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="B3" s="8" t="s">
         <v>926</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="C3" s="0" t="s">
         <v>927</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="D3" s="0" t="s">
         <v>928</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="0" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>929</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="B4" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>930</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="D4" s="0" t="s">
         <v>931</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>931</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>932</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>933</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>934</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>935</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>936</v>
-      </c>
       <c r="E5" s="0" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>938</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>939</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>941</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>942</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>943</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>946</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>948</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>949</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>951</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>952</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>955</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>956</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>957</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>959</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="D12" s="0" t="s">
         <v>960</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>961</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>963</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>964</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>965</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>151</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
   </sheetData>
@@ -4927,20 +4910,20 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="63.3767441860465"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="3" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="23.7488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="14.7674418604651"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="119.618604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="5" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="67.1906976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="3" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="25.106976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="126.879069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="5" width="12.4279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5434,169 +5417,169 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="55.0093023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="59.5627906976744"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="21.7813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="67.5627906976744"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="14" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="58.3302325581395"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="63.2558139534884"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="8" width="23.0139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="8" width="71.7441860465116"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="8" width="12.4279069767442"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="true" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+    <row r="1" s="16" customFormat="true" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="8" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5622,339 +5605,339 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="19" width="60.5488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="23.7488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="101.525581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="19" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="18" width="64.1162790697674"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="29.4139534883721"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="25.106976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="107.804651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="18" width="12.4279069767442"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="19" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="19" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
+      <c r="B4" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="19" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
+      <c r="B5" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="19" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
+      <c r="B6" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="19" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="19" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="19" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="19" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="19" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="C11" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="20" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="D12" s="20" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="19" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="18" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="D14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="19" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
+      <c r="B15" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="19" t="s">
+      <c r="D15" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="19" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="18" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="D16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="19" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
+      <c r="B17" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="D17" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="19" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="19" t="s">
+      <c r="D18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="19" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="D19" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="E19" s="17" t="s">
         <v>245</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5978,756 +5961,756 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.7441860465116"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="35.6883720930233"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="91.8046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="67.5627906976744"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="37.7813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="97.3441860465116"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="true" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+    <row r="1" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="F2" s="17" t="s">
         <v>251</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="D3" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="F3" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>260</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="D5" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="E5" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="E6" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="B7" s="0" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>274</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>270</v>
+      <c r="D7" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="D8" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="E8" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>278</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>281</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="D10" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="E10" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>286</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>287</v>
+        <v>284</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>285</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>287</v>
+      <c r="D12" s="25" t="s">
+        <v>285</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>287</v>
+      <c r="D13" s="25" t="s">
+        <v>285</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="D14" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="E14" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="F14" s="0" t="s">
         <v>300</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="D15" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="E15" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>305</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="D16" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="E16" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>310</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="D17" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="E17" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>315</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>318</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="D19" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>322</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="D20" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>326</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="D21" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>333</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="26" t="s">
-        <v>300</v>
+      <c r="D23" s="25" t="s">
+        <v>298</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="D24" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="E24" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>341</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="D25" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="D26" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>349</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="D27" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>100</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="D28" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>355</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="D29" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="E29" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>360</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="D30" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="E30" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>365</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="D31" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="E31" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>370</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="D32" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>374</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="D34" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="E34" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>382</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="D35" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>386</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="26" t="s">
-        <v>391</v>
+      <c r="D36" s="25" t="s">
+        <v>389</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="D37" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" s="0" t="s">
         <v>394</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -6755,253 +6738,253 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="71.9906976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="30.6418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="38.0279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="28" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="29" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="27" width="85.4046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="27" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="76.4232558139535"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="26" width="32.3674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="40.2418604651163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="28" width="22.7674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="26" width="90.6976744186047"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="26" width="12.4279069767442"/>
   </cols>
   <sheetData>
-    <row r="1" s="33" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+    <row r="1" s="32" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="33" customFormat="true" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="B2" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" s="34" customFormat="true" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+      <c r="D2" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="F2" s="33" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="F5" s="26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="D3" s="29" t="s">
+      <c r="E6" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>406</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>409</v>
-      </c>
-      <c r="D4" s="29" t="s">
+      <c r="E7" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>406</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="D5" s="29" t="s">
+      <c r="E8" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="E9" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D7" s="29" t="s">
+      <c r="E10" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="21.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="21.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
+      <c r="E11" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="C11" s="27" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="26" t="s">
         <v>435</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="D12" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="F12" s="26" t="s">
         <v>438</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -7023,1166 +7006,1166 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F56" activeCellId="0" sqref="F56"/>
+      <selection pane="bottomLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="63.3767441860465"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="35" width="6.52093023255814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="35" width="12.8"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="35" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="35" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="35" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="35" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="35" width="51.1953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="36" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="34" width="67.1906976744186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="34" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="34" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="34" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="34" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="34" width="54.2697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="35" width="12.4279069767442"/>
   </cols>
   <sheetData>
-    <row r="1" s="39" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
+    <row r="1" s="38" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>441</v>
       </c>
-      <c r="F1" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
+      <c r="C2" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="40" t="s">
         <v>442</v>
       </c>
-      <c r="B2" s="40" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="41" t="s">
         <v>443</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="40" t="s">
+      <c r="B3" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
-        <v>445</v>
-      </c>
-      <c r="B3" s="42" t="s">
+      <c r="G3" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="40" t="s">
         <v>446</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="40" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="B4" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>449</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="36.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="41" t="s">
+        <v>455</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>465</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="E9" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F9" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
-        <v>449</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>450</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>451</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="40" t="s">
+      <c r="G9" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>472</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="s">
-        <v>453</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>454</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>455</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="42" t="s">
+      <c r="G10" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="41" t="s">
+        <v>474</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>475</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>476</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>482</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="34" t="s">
+        <v>484</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="34" t="s">
+        <v>489</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="34" t="s">
+        <v>494</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>495</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>496</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>499</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="34" t="s">
+        <v>502</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>504</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>513</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="34" t="s">
+        <v>516</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>525</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>526</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>527</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="34" t="s">
+        <v>529</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>530</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>531</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>532</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="34" t="s">
+        <v>534</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>535</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>536</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="34" t="s">
+        <v>538</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="34" t="s">
+        <v>543</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="34" t="s">
+        <v>548</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>549</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>550</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>527</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="36.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42" t="s">
-        <v>457</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>458</v>
-      </c>
-      <c r="C6" s="42" t="s">
+      <c r="G28" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="34" t="s">
+        <v>556</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="34" t="s">
+        <v>559</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>560</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>561</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>564</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="32.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="34" t="s">
+        <v>567</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>568</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="21.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>572</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>574</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="34" t="s">
+        <v>576</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>577</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>578</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>579</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>582</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="34" t="s">
+        <v>584</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>585</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>586</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="34" t="s">
+        <v>588</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>589</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>591</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="34" t="s">
+        <v>593</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>597</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="34" t="s">
+        <v>599</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>600</v>
+      </c>
+      <c r="C39" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>459</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="42" t="s">
+      <c r="D39" s="34" t="s">
+        <v>601</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="44.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="34" t="s">
+        <v>604</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>605</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>606</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="34" t="s">
+        <v>609</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>610</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>611</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>615</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="42" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="34" t="s">
+        <v>618</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>619</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="s">
-        <v>461</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>462</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>463</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42" t="s">
-        <v>465</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>466</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>467</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42" t="s">
-        <v>469</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>470</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>471</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42" t="s">
-        <v>473</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>474</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>471</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42" t="s">
-        <v>476</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>477</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>478</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>479</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="s">
-        <v>481</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>482</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>483</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>484</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="s">
-        <v>486</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>488</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>489</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>492</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>493</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>494</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35" t="s">
-        <v>496</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>497</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>498</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>494</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="s">
-        <v>500</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>501</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>502</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>494</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35" t="s">
-        <v>504</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>505</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>506</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>494</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="35" t="s">
-        <v>508</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>509</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>510</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="35" t="s">
-        <v>513</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>514</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>516</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35" t="s">
-        <v>518</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>519</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>520</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="35" t="s">
-        <v>522</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>523</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>502</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>524</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="35" t="s">
-        <v>526</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>528</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>529</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="35" t="s">
-        <v>531</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>532</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>534</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="35" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="35" t="s">
-        <v>536</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>537</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>538</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="35" t="s">
-        <v>540</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>541</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>542</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>543</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="35" t="s">
-        <v>545</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>546</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>547</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>548</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="35" t="s">
-        <v>550</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>551</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>552</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>529</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="35" t="s">
-        <v>554</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>555</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>556</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="35" t="s">
-        <v>558</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>559</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>502</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="35" t="s">
-        <v>561</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>562</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>563</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="35" t="s">
-        <v>565</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>566</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>567</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" s="35" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="32.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="35" t="s">
-        <v>569</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>571</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>479</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="35" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="21.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="35" t="s">
-        <v>573</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>574</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>575</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>576</v>
-      </c>
-      <c r="G33" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="35" t="s">
-        <v>578</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>579</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>580</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>581</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="35" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="35" t="s">
-        <v>583</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>584</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" s="35" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="35" t="s">
-        <v>586</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>587</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>588</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>479</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" s="35" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="35" t="s">
-        <v>590</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>592</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>593</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="35" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="35" t="s">
-        <v>595</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>596</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>597</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>598</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>599</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H38" s="35" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="35" t="s">
-        <v>601</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>602</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>603</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>604</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H39" s="35" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="21.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="35" t="s">
-        <v>606</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>607</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>608</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>609</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="35" t="s">
-        <v>611</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>612</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>613</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="35" t="s">
-        <v>615</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>616</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>617</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>618</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H42" s="43" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="35" t="s">
+      <c r="G43" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" s="34" t="s">
         <v>620</v>
       </c>
-      <c r="B43" s="35" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="34" t="s">
         <v>621</v>
       </c>
-      <c r="C43" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="G43" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H43" s="35" t="s">
+      <c r="B44" s="34" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="35" t="s">
+      <c r="C44" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="34" t="s">
         <v>623</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="E44" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="34" t="s">
         <v>624</v>
       </c>
-      <c r="C44" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="35" t="s">
+      <c r="G44" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" s="34" t="s">
         <v>625</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H44" s="35" t="s">
-        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -8215,19 +8198,19 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="63.3767441860465"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="3" width="12.8"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="16.7348837209302"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="51.1953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="67.1906976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="3" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="17.7209302325581"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="54.2697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="12.4279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="53" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8244,7 +8227,7 @@
         <v>61</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>63</v>
@@ -8257,300 +8240,300 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="43" t="s">
         <v>629</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="44" t="s">
+      <c r="G2" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="44" t="s">
         <v>630</v>
       </c>
-      <c r="D2" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="44" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="41.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="E3" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="44" t="s">
-        <v>631</v>
-      </c>
-      <c r="G2" s="44" t="s">
+      <c r="F3" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="G3" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="45" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="41.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
-        <v>633</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>634</v>
-      </c>
-      <c r="D3" s="44" t="s">
+      <c r="H3" s="44" t="s">
         <v>635</v>
       </c>
-      <c r="E3" s="44" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="41.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="43" t="s">
+        <v>636</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>637</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>638</v>
+      </c>
+      <c r="E4" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="44" t="s">
-        <v>636</v>
-      </c>
-      <c r="G3" s="44" t="s">
+      <c r="F4" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="G4" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="45" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="41.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
-        <v>638</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="44" t="s">
+      <c r="H4" s="44" t="s">
         <v>639</v>
       </c>
-      <c r="D4" s="44" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="23.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="43" t="s">
         <v>640</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="B5" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>641</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>476</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="44" t="s">
-        <v>631</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
+      <c r="F5" s="43" t="s">
         <v>642</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="44" t="s">
+      <c r="G5" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="44" t="s">
         <v>643</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>478</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>644</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="41.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>646</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>648</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>110</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>110</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>651</v>
+        <v>633</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>649</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>110</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>653</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>655</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>110</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>72</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="D9" s="43" t="s">
         <v>657</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>659</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>662</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>664</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>502</v>
+        <v>665</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>500</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="D12" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="D12" s="43" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>110</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>76</v>
@@ -8559,284 +8542,284 @@
         <v>72</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>676</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>678</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>110</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>681</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>683</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="G16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>687</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>691</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>695</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>110</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="G19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>701</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>704</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>706</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>110</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>709</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>711</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>110</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="33.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>713</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>715</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="18" t="s">
-        <v>720</v>
+      <c r="H23" s="17" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>151</v>
@@ -8845,24 +8828,24 @@
         <v>110</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="26.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>151</v>
@@ -8871,117 +8854,117 @@
         <v>110</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="D26" s="44" t="s">
+        <v>727</v>
+      </c>
+      <c r="D26" s="43" t="s">
         <v>134</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="58" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>734</v>
+        <v>731</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>732</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>72</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>737</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="G28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>739</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>744</v>
+        <v>741</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>742</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="46" t="s">
-        <v>746</v>
+      <c r="H29" s="45" t="s">
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -9015,122 +8998,122 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="27" width="63.2558139534884"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="6.4"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="55.2558139534884"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="27" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="26" width="67.0697674418605"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="26" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="26" width="58.5767441860465"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="26" width="12.4279069767442"/>
   </cols>
   <sheetData>
-    <row r="1" s="48" customFormat="true" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47" t="s">
+    <row r="1" s="47" customFormat="true" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
+        <v>745</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26" t="s">
+        <v>746</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>747</v>
       </c>
-      <c r="C1" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
+      <c r="D2" s="17" t="s">
         <v>748</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="46" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="48" t="s">
         <v>749</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="B3" s="49" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
+      <c r="C3" s="49" t="s">
         <v>751</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="D3" s="50" t="s">
         <v>752</v>
       </c>
-      <c r="C3" s="50" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="48" t="s">
         <v>753</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="B4" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="s">
+      <c r="D4" s="50" t="s">
         <v>755</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>411</v>
-      </c>
-      <c r="C4" s="50" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="48" t="s">
         <v>756</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="B5" s="49" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="31" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49" t="s">
+      <c r="C5" s="49" t="s">
         <v>758</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="D5" s="51" t="s">
         <v>759</v>
       </c>
-      <c r="C5" s="50" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="48" t="s">
         <v>760</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="B6" s="26" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
+      <c r="C6" s="26" t="s">
         <v>762</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>763</v>
       </c>
-      <c r="C6" s="27" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="48" t="s">
         <v>764</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="B7" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49" t="s">
+      <c r="D7" s="26" t="s">
         <v>766</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="C7" s="27" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="48" t="s">
         <v>767</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="B8" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="49" t="s">
+      <c r="D8" s="26" t="s">
         <v>769</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>770</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>771</v>
       </c>
     </row>
   </sheetData>
